--- a/dev/fhir-ig/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2744,7 +2744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>142</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>149</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>180</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>201</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>212</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>232</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>237</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>252</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>265</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>277</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>281</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>302</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>319</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>328</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>335</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>348</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>367</v>
       </c>
@@ -7998,12 +7998,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP53">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
